--- a/LF/TAS/Training Evaluation/evaluation_fromation_j2.xlsx
+++ b/LF/TAS/Training Evaluation/evaluation_fromation_j2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Training Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\OneDrive - World Health Organization\Documents\Repositories\dsa-forms\LF\TAS\Training Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41774B13-E0C4-4C26-BF3F-D0164ED11B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5847" yWindow="2533" windowWidth="12800" windowHeight="3154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5850" yWindow="2535" windowWidth="12795" windowHeight="3150"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -108,15 +107,9 @@
     <t>1. Evaluation globale du jour 1</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Jusqu’à quel point êtes-vous confiant par rapport à votre maitrise des  thèmes appris aujourd’hui </t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
-    <t>n2</t>
-  </si>
-  <si>
     <t>1 (Pas du tout)</t>
   </si>
   <si>
@@ -136,12 +129,6 @@
   </si>
   <si>
     <t>select_one rating</t>
-  </si>
-  <si>
-    <t>g25</t>
-  </si>
-  <si>
-    <t>g26</t>
   </si>
   <si>
     <t>3. avez-vous apprécié la formation ?</t>
@@ -214,139 +201,19 @@
 indiquer à quel point vous êtes confiant par rapport à votre maitrise des thèmes que vous avez appris aujourd’hui sur une échelle de 1 à 5</t>
   </si>
   <si>
-    <t>Module 5 : Tests diagnostiques</t>
-  </si>
-  <si>
-    <t>2.4.1 Comment utiliser des cartes ICT et interpréter les résultats ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.2 Comment utiliser des tests Brugia RapidTM et interpréter les résultats ? </t>
-  </si>
-  <si>
-    <t>2.4.3 Comment pouvons-nous améliorer ce module ou vous aider ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 9 : Calendrier, budget et administration </t>
-  </si>
-  <si>
-    <t>2.7.1 L’importance de prévoir du temps pour obtenir l’approbation éthique et le consentement éclairé avant une TAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.2 Toutes les informations nécessaires pour une enquête en milieu scolaire ou au sein de la communauté  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.3 Comment préparer une liste de fournitures et estimer le temps et le budget nécessaires pour réaliser une enquête ?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.4 Toutes les activités nécessaires pour une enquête et l’élaboration d’un calendrier </t>
-  </si>
-  <si>
-    <t>2.7.5 Comment pouvons-nous améliorer ce module ou vous aider ?</t>
-  </si>
-  <si>
-    <t>Module 10 : Travail de terrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8.1 La composition de l’équipe pour une TAs et la distribution des tâches  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8.2 L’organisation du travail quotidien pour les enquêtes en milieu scolaire et dans les villages </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8.3 La méthode de suivi des cas détectés au cours d’une enquête      </t>
-  </si>
-  <si>
-    <t>2.8.4 Comment pouvons-nous améliorer ce module ou vous aider ?</t>
-  </si>
-  <si>
-    <t>q241</t>
-  </si>
-  <si>
-    <t>q242</t>
-  </si>
-  <si>
-    <t>q243</t>
-  </si>
-  <si>
-    <t>q29</t>
-  </si>
-  <si>
-    <t>q271</t>
-  </si>
-  <si>
-    <t>q272</t>
-  </si>
-  <si>
-    <t>q273</t>
-  </si>
-  <si>
-    <t>q274</t>
-  </si>
-  <si>
-    <t>g210</t>
-  </si>
-  <si>
-    <t>q281</t>
-  </si>
-  <si>
-    <t>q282</t>
-  </si>
-  <si>
-    <t>q283</t>
-  </si>
-  <si>
-    <t>q284</t>
-  </si>
-  <si>
-    <t>Module 6 : Après l’enquête</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10.1 Les activités à réaliser quand une Ue « passe » ou « ne passe pas » une TAs </t>
-  </si>
-  <si>
-    <t>2.10.2 Comment planifier la surveillance post-TMM en supposant que l’UE cible « passe » l’enquête ?</t>
-  </si>
-  <si>
-    <t>2.10.3 Comment pouvons-nous améliorer ce module ou vous aider ?</t>
-  </si>
-  <si>
-    <t>q2101</t>
-  </si>
-  <si>
-    <t>q2102</t>
-  </si>
-  <si>
-    <t>q2103</t>
-  </si>
-  <si>
-    <t>Module 7 : Vérification de l’élimination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11.1 Les informations qui doivent être collectées pour vérifier l’interruption de la transmission  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11.2 De la TAs à la vérification de l’élimination de la FL : le processus </t>
-  </si>
-  <si>
-    <t>2.11.3 Veuillez identifier et expliquer les principales difficultés liées à la préparation d’un dossier</t>
-  </si>
-  <si>
-    <t>g27</t>
-  </si>
-  <si>
-    <t>q2111</t>
-  </si>
-  <si>
-    <t>q2112</t>
-  </si>
-  <si>
-    <t>q2113</t>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>Numéro de téléhone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -402,7 +269,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,37 +278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,40 +331,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -857,26 +678,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.87890625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="63.1171875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="32.87890625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.87890625" style="9"/>
+    <col min="1" max="1" width="26.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -889,576 +710,224 @@
       <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="68.349999999999994" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="16" customFormat="1" ht="25.35" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="16" customFormat="1" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="16" customFormat="1" ht="25.35" x14ac:dyDescent="0.4">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="16" customFormat="1" ht="25.35" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="16" customFormat="1" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.35" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="20" customFormat="1" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="27" customFormat="1" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A28" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A33" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="33" customFormat="1" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A38" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="14"/>
+      <c r="E16" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -1472,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1482,14 +951,14 @@
       <selection activeCell="A7" sqref="A7:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1171875" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1500,423 +969,423 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1934,7 +1403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1944,14 +1413,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.41015625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1966,12 +1435,12 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>200220</v>
